--- a/Code/Results/Cases/Case_2_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_152/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.87479171057269</v>
+        <v>12.60024387145424</v>
       </c>
       <c r="C2">
-        <v>7.743933179533033</v>
+        <v>10.28170194026331</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.110330295294457</v>
+        <v>13.05809924185188</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.128372602658679</v>
+        <v>3.685313114342073</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.59104755442077</v>
+        <v>8.9805283210148</v>
       </c>
       <c r="L2">
-        <v>6.218114823803302</v>
+        <v>9.98922244188811</v>
       </c>
       <c r="M2">
-        <v>9.682618224261299</v>
+        <v>14.27773489005413</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.88959339440841</v>
+        <v>27.80131881722183</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.0811722295152</v>
+        <v>12.3948816509258</v>
       </c>
       <c r="C3">
-        <v>7.766487660853752</v>
+        <v>10.29171505908981</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.126450450221338</v>
+        <v>13.09078083702593</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.133172740075217</v>
+        <v>3.6870752044541</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.01219534448327</v>
+        <v>8.822164057191994</v>
       </c>
       <c r="L3">
-        <v>6.142052670942673</v>
+        <v>9.996868356097464</v>
       </c>
       <c r="M3">
-        <v>9.374102225003142</v>
+        <v>14.24857421657771</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.12516198464632</v>
+        <v>27.92158678243339</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.56990421842907</v>
+        <v>12.26916191965046</v>
       </c>
       <c r="C4">
-        <v>7.781731245261899</v>
+        <v>10.29848687171166</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.140554461731117</v>
+        <v>13.11271530629265</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.136210170238718</v>
+        <v>3.688214318123477</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.639055389285723</v>
+        <v>8.724638165517616</v>
       </c>
       <c r="L4">
-        <v>6.097569025530968</v>
+        <v>10.0028750634725</v>
       </c>
       <c r="M4">
-        <v>9.183045191966228</v>
+        <v>14.23257989911087</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.28265582214691</v>
+        <v>28.00064791980876</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.3556329985601</v>
+        <v>12.21808834220293</v>
       </c>
       <c r="C5">
-        <v>7.788291354078483</v>
+        <v>10.30140377948515</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.147334743629491</v>
+        <v>13.12212367241442</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.137471126177021</v>
+        <v>3.688692939757432</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.48260216818352</v>
+        <v>8.68487199552453</v>
       </c>
       <c r="L5">
-        <v>6.080007353494976</v>
+        <v>10.00565332468904</v>
       </c>
       <c r="M5">
-        <v>9.104888438675008</v>
+        <v>14.22654714869165</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.34994545745043</v>
+        <v>28.03417711447595</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.31969923482845</v>
+        <v>12.20961905896564</v>
       </c>
       <c r="C6">
-        <v>7.789401615342751</v>
+        <v>10.30189764738487</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.148522256132336</v>
+        <v>13.12371431061722</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.137681921544975</v>
+        <v>3.688773286969598</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.456359854732016</v>
+        <v>8.67826888494622</v>
       </c>
       <c r="L6">
-        <v>6.077125629522043</v>
+        <v>10.00613462771105</v>
       </c>
       <c r="M6">
-        <v>9.091895839564899</v>
+        <v>14.22557484174697</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.36130325449271</v>
+        <v>28.03982378756246</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.56703831183899</v>
+        <v>12.26847239752533</v>
       </c>
       <c r="C7">
-        <v>7.781818310489734</v>
+        <v>10.29852557242302</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.140641754075318</v>
+        <v>13.11284028796206</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.136227081415584</v>
+        <v>3.688220714522718</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.636963111644949</v>
+        <v>8.724101894817881</v>
       </c>
       <c r="L7">
-        <v>6.097329882340649</v>
+        <v>10.00291119329994</v>
       </c>
       <c r="M7">
-        <v>9.181992204502015</v>
+        <v>14.23249656940088</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.2835508782007</v>
+        <v>28.00109479814093</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.60618329170017</v>
+        <v>12.5293958615709</v>
       </c>
       <c r="C8">
-        <v>7.751418821006534</v>
+        <v>10.28502531093699</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.115000523480994</v>
+        <v>13.06898031618525</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.130009301912001</v>
+        <v>3.685908841402555</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.39516896256875</v>
+        <v>8.92601368139549</v>
       </c>
       <c r="L8">
-        <v>6.191433086907515</v>
+        <v>9.991586772959385</v>
       </c>
       <c r="M8">
-        <v>9.576642856312011</v>
+        <v>14.26728666499034</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.96807301358518</v>
+        <v>27.84170430340071</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.56378585107275</v>
+        <v>13.04124219856434</v>
       </c>
       <c r="C9">
-        <v>7.702999963501391</v>
+        <v>10.2634784088791</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.099212828543521</v>
+        <v>12.99778195704375</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.118506793363855</v>
+        <v>3.681826959770647</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.73952098400592</v>
+        <v>9.317554455286452</v>
       </c>
       <c r="L9">
-        <v>6.393189627503669</v>
+        <v>9.97976494115108</v>
       </c>
       <c r="M9">
-        <v>10.33326044531354</v>
+        <v>14.35045149279996</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.45740920047965</v>
+        <v>27.5705498344043</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.88627925776027</v>
+        <v>13.41375713955705</v>
       </c>
       <c r="C10">
-        <v>7.674439812564968</v>
+        <v>10.25062239854167</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.110187108154239</v>
+        <v>12.95448822732231</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.110440673661634</v>
+        <v>3.679100521830116</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.63879714048451</v>
+        <v>9.599804954326077</v>
       </c>
       <c r="L10">
-        <v>6.551366334978336</v>
+        <v>9.977374034709934</v>
       </c>
       <c r="M10">
-        <v>10.87339913774593</v>
+        <v>14.42035324783993</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.15712102067875</v>
+        <v>27.39660773853511</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.45630948411483</v>
+        <v>13.58171772201462</v>
       </c>
       <c r="C11">
-        <v>7.663015766235732</v>
+        <v>10.2454135833417</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.120414499133595</v>
+        <v>12.93674733311559</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.106846240179757</v>
+        <v>3.677918764712104</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.02859257639929</v>
+        <v>9.726489009168965</v>
       </c>
       <c r="L11">
-        <v>6.625360893847707</v>
+        <v>9.977644079385014</v>
       </c>
       <c r="M11">
-        <v>11.11479445357542</v>
+        <v>14.45399242961342</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.03899453501116</v>
+        <v>27.32297273411406</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.66768168653336</v>
+        <v>13.64504603398623</v>
       </c>
       <c r="C12">
-        <v>7.65891945197563</v>
+        <v>10.2435325858307</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.125067557250379</v>
+        <v>12.9303099793883</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.105495147711392</v>
+        <v>3.677479632455139</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.17342535872723</v>
+        <v>9.774172030132497</v>
       </c>
       <c r="L12">
-        <v>6.653663358671478</v>
+        <v>9.977940667783427</v>
       </c>
       <c r="M12">
-        <v>11.20552089099987</v>
+        <v>14.46698878647971</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.99712324139902</v>
+        <v>27.29587968305455</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.62235751600579</v>
+        <v>13.63142028239733</v>
       </c>
       <c r="C13">
-        <v>7.659791378709575</v>
+        <v>10.24393363195195</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.12403030302783</v>
+        <v>12.93168389609762</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.105785695124219</v>
+        <v>3.677573835672198</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.14235634495854</v>
+        <v>9.763916175964701</v>
       </c>
       <c r="L13">
-        <v>6.647555528902886</v>
+        <v>9.977868164532728</v>
       </c>
       <c r="M13">
-        <v>11.18601270213776</v>
+        <v>14.4641784272464</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.00601033449466</v>
+        <v>27.30167946062353</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.47378878451729</v>
+        <v>13.58693361611557</v>
       </c>
       <c r="C14">
-        <v>7.662674130606945</v>
+        <v>10.24525700216584</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.1207815162283</v>
+        <v>12.93621210292422</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.106734888072074</v>
+        <v>3.677882469450449</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.0405636341764</v>
+        <v>9.73041796069378</v>
       </c>
       <c r="L14">
-        <v>6.627683757336102</v>
+        <v>9.977664590698966</v>
       </c>
       <c r="M14">
-        <v>11.12227262839031</v>
+        <v>14.45505651800715</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.03549120417741</v>
+        <v>27.32072791430527</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.38220361684025</v>
+        <v>13.55964675857716</v>
       </c>
       <c r="C15">
-        <v>7.664469947269112</v>
+        <v>10.24607950207457</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.118893955073943</v>
+        <v>12.93902231463003</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.107317581495537</v>
+        <v>3.678072605830375</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.97785147661997</v>
+        <v>9.709860395814864</v>
       </c>
       <c r="L15">
-        <v>6.615548174443303</v>
+        <v>9.97756517505745</v>
       </c>
       <c r="M15">
-        <v>11.08313908167982</v>
+        <v>14.44950247048335</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.05392794241544</v>
+        <v>27.33249867960782</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.84839567170723</v>
+        <v>13.40274524548681</v>
       </c>
       <c r="C16">
-        <v>7.675218309820196</v>
+        <v>10.25097563280466</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.10962640504385</v>
+        <v>12.95568693266929</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.110677024124192</v>
+        <v>3.679178926392826</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.61293472521273</v>
+        <v>9.591487642553368</v>
       </c>
       <c r="L16">
-        <v>6.546570710291933</v>
+        <v>9.977383630992144</v>
       </c>
       <c r="M16">
-        <v>10.85753083840301</v>
+        <v>14.41819131480902</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.16522971954083</v>
+        <v>27.40153057352084</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.51287243551009</v>
+        <v>13.3060645128717</v>
       </c>
       <c r="C17">
-        <v>7.682216624997684</v>
+        <v>10.25414268386344</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.105301343660551</v>
+        <v>12.96641037920174</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.112756610274223</v>
+        <v>3.679872575852931</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.3841268421396</v>
+        <v>9.518399624297901</v>
       </c>
       <c r="L17">
-        <v>6.504769697161469</v>
+        <v>9.977619373503796</v>
       </c>
       <c r="M17">
-        <v>10.71797337008086</v>
+        <v>14.39944963396447</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.23838206018135</v>
+        <v>27.44528688531632</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.31691262269345</v>
+        <v>13.25031866969358</v>
       </c>
       <c r="C18">
-        <v>7.686389196860322</v>
+        <v>10.25602450469713</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.103304796855339</v>
+        <v>12.97276212075034</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.113959827888391</v>
+        <v>3.680277054619805</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.25070647198772</v>
+        <v>9.476202524987695</v>
       </c>
       <c r="L18">
-        <v>6.480919438389895</v>
+        <v>9.977882816312473</v>
       </c>
       <c r="M18">
-        <v>10.63730053791762</v>
+        <v>14.38884357489246</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.28218327574389</v>
+        <v>27.47097123096404</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.25005126157349</v>
+        <v>13.23142229261823</v>
       </c>
       <c r="C19">
-        <v>7.687827137546098</v>
+        <v>10.25667201395376</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.102712317631797</v>
+        <v>12.97494430164018</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.11436845662055</v>
+        <v>3.680414951761588</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.20522084098623</v>
+        <v>9.461889388388395</v>
       </c>
       <c r="L19">
-        <v>6.472877563647354</v>
+        <v>9.977993998243505</v>
       </c>
       <c r="M19">
-        <v>10.60991898186125</v>
+        <v>14.38528257244378</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.29730408634249</v>
+        <v>27.47975624765796</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.54889703862784</v>
+        <v>13.31637102493506</v>
       </c>
       <c r="C20">
-        <v>7.681456365061108</v>
+        <v>10.25379931716631</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.105710727516032</v>
+        <v>12.9652498185225</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.11253450562749</v>
+        <v>3.679798165720964</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.40867182069633</v>
+        <v>9.526196723858174</v>
       </c>
       <c r="L20">
-        <v>6.509199635352118</v>
+        <v>9.977581052644357</v>
       </c>
       <c r="M20">
-        <v>10.73287171059476</v>
+        <v>14.40142679262681</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.23041481506953</v>
+        <v>27.44057544855366</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.51754832026735</v>
+        <v>13.600008343263</v>
       </c>
       <c r="C21">
-        <v>7.661821126540349</v>
+        <v>10.24486581770237</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.121714371593486</v>
+        <v>12.93487444131067</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.106455820595705</v>
+        <v>3.677791589295259</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.07053788173892</v>
+        <v>9.740265387549687</v>
       </c>
       <c r="L21">
-        <v>6.633513000842474</v>
+        <v>9.977719118820371</v>
       </c>
       <c r="M21">
-        <v>11.14101367998627</v>
+        <v>14.45772889881516</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.02675261963515</v>
+        <v>27.31511144667179</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.12449761742224</v>
+        <v>13.78375488602037</v>
       </c>
       <c r="C22">
-        <v>7.650329566842201</v>
+        <v>10.23956017913881</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.136733860796118</v>
+        <v>12.91665862726831</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.102541206543499</v>
+        <v>3.676528964259798</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.48693968531669</v>
+        <v>9.878465919602709</v>
       </c>
       <c r="L22">
-        <v>6.716399902165289</v>
+        <v>9.978941576566859</v>
       </c>
       <c r="M22">
-        <v>11.40374383475019</v>
+        <v>14.49602566906984</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.91042734633096</v>
+        <v>27.23772416925081</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.8029287206014</v>
+        <v>13.68585364173855</v>
       </c>
       <c r="C23">
-        <v>7.656338626105597</v>
+        <v>10.24234329593468</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.128291352429191</v>
+        <v>12.92623110215149</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.10462544074985</v>
+        <v>3.677198400168729</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.26617569392896</v>
+        <v>9.804875431109702</v>
       </c>
       <c r="L23">
-        <v>6.672014941805282</v>
+        <v>9.978185846847834</v>
       </c>
       <c r="M23">
-        <v>11.26390583215379</v>
+        <v>14.47545100012316</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.97090558902307</v>
+        <v>27.27860493947256</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.53261986037815</v>
+        <v>13.31171195338367</v>
       </c>
       <c r="C24">
-        <v>7.681799614334417</v>
+        <v>10.2539543630806</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.105524120940414</v>
+        <v>12.96577392647736</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.112634895299899</v>
+        <v>3.679831788813311</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.39758087806991</v>
+        <v>9.522672205722573</v>
       </c>
       <c r="L24">
-        <v>6.507196293505841</v>
+        <v>9.977597979009575</v>
       </c>
       <c r="M24">
-        <v>10.72613753446837</v>
+        <v>14.40053239294588</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.23401138665848</v>
+        <v>27.44270384368652</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.04840562516759</v>
+        <v>12.90313808203292</v>
       </c>
       <c r="C25">
-        <v>7.714881525975315</v>
+        <v>10.26878295776963</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.099631795839667</v>
+        <v>13.01545871061994</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.121548217993194</v>
+        <v>3.682883155174986</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.39129687809941</v>
+        <v>9.212392171714821</v>
       </c>
       <c r="L25">
-        <v>6.336820549882229</v>
+        <v>9.981854746333314</v>
       </c>
       <c r="M25">
-        <v>10.1310004017978</v>
+        <v>14.32638417534563</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.5831082826016</v>
+        <v>27.63946811656485</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_152/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.60024387145424</v>
+        <v>12.87479171057271</v>
       </c>
       <c r="C2">
-        <v>10.28170194026331</v>
+        <v>7.743933179533167</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.05809924185188</v>
+        <v>8.110330295294505</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.685313114342073</v>
+        <v>2.128372602658811</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.9805283210148</v>
+        <v>10.59104755442078</v>
       </c>
       <c r="L2">
-        <v>9.98922244188811</v>
+        <v>6.218114823803299</v>
       </c>
       <c r="M2">
-        <v>14.27773489005413</v>
+        <v>9.682618224261335</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.80131881722183</v>
+        <v>17.88959339440836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.3948816509258</v>
+        <v>12.08117222951519</v>
       </c>
       <c r="C3">
-        <v>10.29171505908981</v>
+        <v>7.766487660853752</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.09078083702593</v>
+        <v>8.126450450221334</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.6870752044541</v>
+        <v>2.133172740075083</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.822164057191994</v>
+        <v>10.01219534448326</v>
       </c>
       <c r="L3">
-        <v>9.996868356097464</v>
+        <v>6.142052670942669</v>
       </c>
       <c r="M3">
-        <v>14.24857421657771</v>
+        <v>9.37410222500316</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.92158678243339</v>
+        <v>18.12516198464627</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.26916191965046</v>
+        <v>11.56990421842907</v>
       </c>
       <c r="C4">
-        <v>10.29848687171166</v>
+        <v>7.781731245261758</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.11271530629265</v>
+        <v>8.140554461731053</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.688214318123477</v>
+        <v>2.136210170238718</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.724638165517616</v>
+        <v>9.639055389285746</v>
       </c>
       <c r="L4">
-        <v>10.0028750634725</v>
+        <v>6.097569025530972</v>
       </c>
       <c r="M4">
-        <v>14.23257989911087</v>
+        <v>9.183045191966206</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.00064791980876</v>
+        <v>18.28265582214676</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.21808834220293</v>
+        <v>11.35563299856011</v>
       </c>
       <c r="C5">
-        <v>10.30140377948515</v>
+        <v>7.788291354078619</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.12212367241442</v>
+        <v>8.147334743629541</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.688692939757432</v>
+        <v>2.137471126176753</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.68487199552453</v>
+        <v>9.482602168183563</v>
       </c>
       <c r="L5">
-        <v>10.00565332468904</v>
+        <v>6.080007353494999</v>
       </c>
       <c r="M5">
-        <v>14.22654714869165</v>
+        <v>9.104888438674999</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.03417711447595</v>
+        <v>18.34994545745023</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.20961905896564</v>
+        <v>11.31969923482842</v>
       </c>
       <c r="C6">
-        <v>10.30189764738487</v>
+        <v>7.789401615342884</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.12371431061722</v>
+        <v>8.148522256132393</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.688773286969598</v>
+        <v>2.137681921545107</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.67826888494622</v>
+        <v>9.456359854732042</v>
       </c>
       <c r="L6">
-        <v>10.00613462771105</v>
+        <v>6.077125629522043</v>
       </c>
       <c r="M6">
-        <v>14.22557484174697</v>
+        <v>9.091895839564916</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.03982378756246</v>
+        <v>18.36130325449261</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.26847239752533</v>
+        <v>11.56703831183896</v>
       </c>
       <c r="C7">
-        <v>10.29852557242302</v>
+        <v>7.781818310489727</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.11284028796206</v>
+        <v>8.14064175407532</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.688220714522718</v>
+        <v>2.136227081415452</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.724101894817881</v>
+        <v>9.636963111644988</v>
       </c>
       <c r="L7">
-        <v>10.00291119329994</v>
+        <v>6.097329882340623</v>
       </c>
       <c r="M7">
-        <v>14.23249656940088</v>
+        <v>9.181992204501974</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.00109479814093</v>
+        <v>18.28355087820065</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.5293958615709</v>
+        <v>12.60618329170015</v>
       </c>
       <c r="C8">
-        <v>10.28502531093699</v>
+        <v>7.751418821006273</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.06898031618525</v>
+        <v>8.115000523480829</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.685908841402555</v>
+        <v>2.130009301911599</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.92601368139549</v>
+        <v>10.39516896256871</v>
       </c>
       <c r="L8">
-        <v>9.991586772959385</v>
+        <v>6.191433086907469</v>
       </c>
       <c r="M8">
-        <v>14.26728666499034</v>
+        <v>9.576642856311997</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.84170430340071</v>
+        <v>17.96807301358521</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.04124219856434</v>
+        <v>14.56378585107279</v>
       </c>
       <c r="C9">
-        <v>10.2634784088791</v>
+        <v>7.702999963501238</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.99778195704375</v>
+        <v>8.099212828543479</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.681826959770647</v>
+        <v>2.118506793363722</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.317554455286452</v>
+        <v>11.73952098400589</v>
       </c>
       <c r="L9">
-        <v>9.97976494115108</v>
+        <v>6.393189627503645</v>
       </c>
       <c r="M9">
-        <v>14.35045149279996</v>
+        <v>10.33326044531353</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.5705498344043</v>
+        <v>17.45740920047957</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.41375713955705</v>
+        <v>15.88627925776029</v>
       </c>
       <c r="C10">
-        <v>10.25062239854167</v>
+        <v>7.674439812565098</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.95448822732231</v>
+        <v>8.11018710815434</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.679100521830116</v>
+        <v>2.110440673661766</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.599804954326077</v>
+        <v>12.63879714048456</v>
       </c>
       <c r="L10">
-        <v>9.977374034709934</v>
+        <v>6.551366334978377</v>
       </c>
       <c r="M10">
-        <v>14.42035324783993</v>
+        <v>10.87339913774595</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.39660773853511</v>
+        <v>17.15712102067854</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.58171772201462</v>
+        <v>16.45630948411483</v>
       </c>
       <c r="C11">
-        <v>10.2454135833417</v>
+        <v>7.66301576623585</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.93674733311559</v>
+        <v>8.120414499133748</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.677918764712104</v>
+        <v>2.10684624018016</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.726489009168965</v>
+        <v>13.02859257639928</v>
       </c>
       <c r="L11">
-        <v>9.977644079385014</v>
+        <v>6.625360893847734</v>
       </c>
       <c r="M11">
-        <v>14.45399242961342</v>
+        <v>11.11479445357545</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.32297273411406</v>
+        <v>17.03899453501126</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.64504603398623</v>
+        <v>16.66768168653338</v>
       </c>
       <c r="C12">
-        <v>10.2435325858307</v>
+        <v>7.658919451975497</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.9303099793883</v>
+        <v>8.125067557250379</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.677479632455139</v>
+        <v>2.105495147711526</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.774172030132497</v>
+        <v>13.17342535872721</v>
       </c>
       <c r="L12">
-        <v>9.977940667783427</v>
+        <v>6.653663358671491</v>
       </c>
       <c r="M12">
-        <v>14.46698878647971</v>
+        <v>11.20552089099988</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.29587968305455</v>
+        <v>16.99712324139906</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.63142028239733</v>
+        <v>16.62235751600576</v>
       </c>
       <c r="C13">
-        <v>10.24393363195195</v>
+        <v>7.659791378709577</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.93168389609762</v>
+        <v>8.124030303027933</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.677573835672198</v>
+        <v>2.105785695124219</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.763916175964701</v>
+        <v>13.14235634495852</v>
       </c>
       <c r="L13">
-        <v>9.977868164532728</v>
+        <v>6.647555528902944</v>
       </c>
       <c r="M13">
-        <v>14.4641784272464</v>
+        <v>11.1860127021378</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.30167946062353</v>
+        <v>17.00601033449476</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.58693361611557</v>
+        <v>16.47378878451725</v>
       </c>
       <c r="C14">
-        <v>10.24525700216584</v>
+        <v>7.662674130607193</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.93621210292422</v>
+        <v>8.120781516228364</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.677882469450449</v>
+        <v>2.106734888071941</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.73041796069378</v>
+        <v>13.04056363417638</v>
       </c>
       <c r="L14">
-        <v>9.977664590698966</v>
+        <v>6.627683757336106</v>
       </c>
       <c r="M14">
-        <v>14.45505651800715</v>
+        <v>11.12227262839033</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.32072791430527</v>
+        <v>17.03549120417747</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.55964675857716</v>
+        <v>16.38220361684029</v>
       </c>
       <c r="C15">
-        <v>10.24607950207457</v>
+        <v>7.664469947268985</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.93902231463003</v>
+        <v>8.118893955073881</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.678072605830375</v>
+        <v>2.10731758149567</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.709860395814864</v>
+        <v>12.97785147661997</v>
       </c>
       <c r="L15">
-        <v>9.97756517505745</v>
+        <v>6.61554817444328</v>
       </c>
       <c r="M15">
-        <v>14.44950247048335</v>
+        <v>11.0831390816798</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.33249867960782</v>
+        <v>17.05392794241551</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.40274524548681</v>
+        <v>15.8483956717072</v>
       </c>
       <c r="C16">
-        <v>10.25097563280466</v>
+        <v>7.675218309820077</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.95568693266929</v>
+        <v>8.109626405044008</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.679178926392826</v>
+        <v>2.110677024124192</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.591487642553368</v>
+        <v>12.61293472521269</v>
       </c>
       <c r="L16">
-        <v>9.977383630992144</v>
+        <v>6.54657071029198</v>
       </c>
       <c r="M16">
-        <v>14.41819131480902</v>
+        <v>10.85753083840307</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.40153057352084</v>
+        <v>17.16522971954096</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.3060645128717</v>
+        <v>15.51287243551013</v>
       </c>
       <c r="C17">
-        <v>10.25414268386344</v>
+        <v>7.682216624997812</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.96641037920174</v>
+        <v>8.105301343660656</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.679872575852931</v>
+        <v>2.112756610274222</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.518399624297901</v>
+        <v>12.38412684213962</v>
       </c>
       <c r="L17">
-        <v>9.977619373503796</v>
+        <v>6.504769697161507</v>
       </c>
       <c r="M17">
-        <v>14.39944963396447</v>
+        <v>10.71797337008085</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.44528688531632</v>
+        <v>17.23838206018118</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.25031866969358</v>
+        <v>15.31691262269343</v>
       </c>
       <c r="C18">
-        <v>10.25602450469713</v>
+        <v>7.686389196860456</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.97276212075034</v>
+        <v>8.103304796855495</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.680277054619805</v>
+        <v>2.113959827888659</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.476202524987695</v>
+        <v>12.25070647198775</v>
       </c>
       <c r="L18">
-        <v>9.977882816312473</v>
+        <v>6.480919438389964</v>
       </c>
       <c r="M18">
-        <v>14.38884357489246</v>
+        <v>10.63730053791767</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.47097123096404</v>
+        <v>17.28218327574379</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.23142229261823</v>
+        <v>15.25005126157362</v>
       </c>
       <c r="C19">
-        <v>10.25667201395376</v>
+        <v>7.687827137545806</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.97494430164018</v>
+        <v>8.102712317631815</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.680414951761588</v>
+        <v>2.114368456620282</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.461889388388395</v>
+        <v>12.20522084098629</v>
       </c>
       <c r="L19">
-        <v>9.977993998243505</v>
+        <v>6.472877563647453</v>
       </c>
       <c r="M19">
-        <v>14.38528257244378</v>
+        <v>10.60991898186123</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.47975624765796</v>
+        <v>17.2973040863422</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.31637102493506</v>
+        <v>15.54889703862784</v>
       </c>
       <c r="C20">
-        <v>10.25379931716631</v>
+        <v>7.68145636506109</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.9652498185225</v>
+        <v>8.105710727516097</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.679798165720964</v>
+        <v>2.112534505627626</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.526196723858174</v>
+        <v>12.40867182069632</v>
       </c>
       <c r="L20">
-        <v>9.977581052644357</v>
+        <v>6.509199635352136</v>
       </c>
       <c r="M20">
-        <v>14.40142679262681</v>
+        <v>10.73287171059478</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.44057544855366</v>
+        <v>17.23041481506945</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.600008343263</v>
+        <v>16.51754832026739</v>
       </c>
       <c r="C21">
-        <v>10.24486581770237</v>
+        <v>7.661821126540349</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.93487444131067</v>
+        <v>8.121714371593448</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.677791589295259</v>
+        <v>2.106455820595571</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.740265387549687</v>
+        <v>13.07053788173895</v>
       </c>
       <c r="L21">
-        <v>9.977719118820371</v>
+        <v>6.633513000842455</v>
       </c>
       <c r="M21">
-        <v>14.45772889881516</v>
+        <v>11.14101367998624</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.31511144667179</v>
+        <v>17.02675261963491</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.78375488602037</v>
+        <v>17.12449761742222</v>
       </c>
       <c r="C22">
-        <v>10.23956017913881</v>
+        <v>7.650329566841823</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.91665862726831</v>
+        <v>8.136733860796074</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.676528964259798</v>
+        <v>2.102541206543233</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.878465919602709</v>
+        <v>13.48693968531659</v>
       </c>
       <c r="L22">
-        <v>9.978941576566859</v>
+        <v>6.716399902165287</v>
       </c>
       <c r="M22">
-        <v>14.49602566906984</v>
+        <v>11.40374383475022</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.23772416925081</v>
+        <v>16.91042734633116</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.68585364173855</v>
+        <v>16.8029287206014</v>
       </c>
       <c r="C23">
-        <v>10.24234329593468</v>
+        <v>7.656338626105619</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.92623110215149</v>
+        <v>8.128291352429185</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.677198400168729</v>
+        <v>2.104625440749445</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.804875431109702</v>
+        <v>13.26617569392899</v>
       </c>
       <c r="L23">
-        <v>9.978185846847834</v>
+        <v>6.672014941805222</v>
       </c>
       <c r="M23">
-        <v>14.47545100012316</v>
+        <v>11.26390583215377</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.27860493947256</v>
+        <v>16.97090558902296</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.31171195338367</v>
+        <v>15.53261986037815</v>
       </c>
       <c r="C24">
-        <v>10.2539543630806</v>
+        <v>7.681799614334422</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.96577392647736</v>
+        <v>8.105524120940458</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.679831788813311</v>
+        <v>2.112634895299764</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.522672205722573</v>
+        <v>12.39758087806988</v>
       </c>
       <c r="L24">
-        <v>9.977597979009575</v>
+        <v>6.507196293505863</v>
       </c>
       <c r="M24">
-        <v>14.40053239294588</v>
+        <v>10.7261375344684</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.44270384368652</v>
+        <v>17.23401138665837</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.90313808203292</v>
+        <v>14.04840562516759</v>
       </c>
       <c r="C25">
-        <v>10.26878295776963</v>
+        <v>7.714881525975309</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.01545871061994</v>
+        <v>8.099631795839718</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.682883155174986</v>
+        <v>2.121548217993462</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.212392171714821</v>
+        <v>11.39129687809941</v>
       </c>
       <c r="L25">
-        <v>9.981854746333314</v>
+        <v>6.336820549882251</v>
       </c>
       <c r="M25">
-        <v>14.32638417534563</v>
+        <v>10.13100040179781</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.63946811656485</v>
+        <v>17.5831082826016</v>
       </c>
     </row>
   </sheetData>
